--- a/src/make_dummy_data/登録学生一覧.xlsx
+++ b/src/make_dummy_data/登録学生一覧.xlsx
@@ -448,936 +448,936 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>97917764</t>
+          <t>97993510</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>はりすた いるんぬ</t>
+          <t>こーるど ぷれりん</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>97522092</t>
+          <t>91159695</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>まーらー るぴょ</t>
+          <t>にゅとーん いさりん</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>97007146</t>
+          <t>90651734</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>おおいずみ ひろしぇ</t>
+          <t>ふぇでら ろじゃりん</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>95337881</t>
+          <t>91512015</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>むばっぺ きゅりん</t>
+          <t>ながさま まさみん</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>92480580</t>
+          <t>95122801</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>べんぜま りんる</t>
+          <t>さかぐてぃ けんたろぴ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>97646726</t>
+          <t>94408956</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>おかざき りんぬ</t>
+          <t>あんどりゅ りんふ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>91428426</t>
+          <t>98098503</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>あいしゅ たいんるん</t>
+          <t>かりすて ふりん</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>96708611</t>
+          <t>93021805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>かりすて ふりん</t>
+          <t>めしりお ねるん</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>96038981</t>
+          <t>94011838</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>えみりー ぶらりん</t>
+          <t>ひゅー じゃくりん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>98859883</t>
+          <t>99072052</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>いけえ りかこぴ</t>
+          <t>える ふぁにんぬ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>91813571</t>
+          <t>96123779</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>なだる らふぁみゅ</t>
+          <t>まーらー るぴょ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>96948164</t>
+          <t>90653843</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>そんふん みんりん</t>
+          <t>かわぐてぃ はるにゃ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>93334068</t>
+          <t>96716163</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>まーく らふりん</t>
+          <t>りあーな ぴょんぬ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>93764586</t>
+          <t>90043817</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>めりる すとりゃ</t>
+          <t>みうらか ずたん</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>91439825</t>
+          <t>91941830</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ぶらぴと ぴっとん</t>
+          <t>えどしー らんぴ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>95621033</t>
+          <t>99350122</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ていすう ふとちゃ</t>
+          <t>ればんど ふすりん</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>99281446</t>
+          <t>90506589</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ふぇでら ろじゃりん</t>
+          <t>すかーれ っとりん</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>98865289</t>
+          <t>90954705</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>すだまちゃ まさきゅ</t>
+          <t>けいと うぃんり</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>96265941</t>
+          <t>95012302</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>だるびしゅ ゆうにゃ</t>
+          <t>えまま そんりん</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>96478099</t>
+          <t>91808853</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>めしりお ぴょりん</t>
+          <t>めんでれ ふぃん</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>90678261</t>
+          <t>90026696</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>えりっく さてぃん</t>
+          <t>とびー まぐりん</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>99434229</t>
+          <t>94288321</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>あんじぇり なりゅ</t>
+          <t>ひろしぇ すずたん</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>99317829</t>
+          <t>90111320</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>よしだ りんちゃ</t>
+          <t>いけえ りかこぴ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>94655496</t>
+          <t>91019367</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>あでるる ぴょみ</t>
+          <t>あいしゅ たいんるん</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>99982824</t>
+          <t>95619961</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>えでぃ れどりん</t>
+          <t>じぇにふぁ ろれみゅ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>98206979</t>
+          <t>92833198</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ぼるうさ いんたん</t>
+          <t>ろばー とぱりん</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>99327728</t>
+          <t>96815845</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>えまま そんりん</t>
+          <t>だるびしゅ ゆうにゃ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>90043626</t>
+          <t>99482770</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ぜんで いやりん</t>
+          <t>じょだま いけるん</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>91969589</t>
+          <t>96471453</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>めしりお ねるん</t>
+          <t>はりすた いるんぬ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>93935869</t>
+          <t>90041840</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ほんだけ いすけちゃ</t>
+          <t>ねいまー るりん</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>90032585</t>
+          <t>97526525</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>いにえす たりん</t>
+          <t>きゅりまり りんぬ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>91648834</t>
+          <t>91945063</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ふろーれ んすぴ</t>
+          <t>だにえる くらりん</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>99366306</t>
+          <t>96075175</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>うぃる すみりん</t>
+          <t>たき りんぴ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>95487087</t>
+          <t>90514484</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>きゅりまり りんぬ</t>
+          <t>みりー ぼびりん</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>95342262</t>
+          <t>96011456</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>じょーじ くるりん</t>
+          <t>むばっぺ きゅりん</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>94163088</t>
+          <t>98592767</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ばっはん るんみ</t>
+          <t>なだる らふぁみゅ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>98466497</t>
+          <t>91658723</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>べーとー べんちゃ</t>
+          <t>こぺるに くすみゅ</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>98979186</t>
+          <t>91142538</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ふくだん みらきゅ</t>
+          <t>ありあな ぐらぴょ</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>98997051</t>
+          <t>98536163</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>さかぐてぃ けんたろぴ</t>
+          <t>よしだま さたろ</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>99442524</t>
+          <t>94262459</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>まね りんぬ</t>
+          <t>きむたくん たくやん</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>96113096</t>
+          <t>90577055</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ながとも ゆうぴょ</t>
+          <t>じぇな おてりん</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>95609915</t>
+          <t>90496767</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>らいあん ごすりん</t>
+          <t>めりる すとりゃ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>94685874</t>
+          <t>92983686</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>まーご っとりん</t>
+          <t>えみりー ぶらりん</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>95435169</t>
+          <t>97970565</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>とむるん くるーちゃ</t>
+          <t>はまなべ みなみゅ</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>97518013</t>
+          <t>95615247</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>じぇにふぁ ろれみゅ</t>
+          <t>じぇし かちゃり</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>95924674</t>
+          <t>98282607</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>もどりち るかりん</t>
+          <t>ぶらぴと ぴっとん</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>90259100</t>
+          <t>96195615</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>はにゅう ゆづりゅ</t>
+          <t>まついひ できゅ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>95217373</t>
+          <t>97536739</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>べん あふりん</t>
+          <t>さらー りんみゅ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>92687964</t>
+          <t>98496681</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>けいと うぃんり</t>
+          <t>はーらん どりん</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>90009839</t>
+          <t>90228827</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>らべるん みゃ</t>
+          <t>ぶるーの まるりん</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>98935855</t>
+          <t>92698372</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>むらかみ むねきゅん</t>
+          <t>もーつぁ るとぴ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>93204970</t>
+          <t>92422894</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>よしざわ りょうち</t>
+          <t>もりなな ぴょん</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>92824178</t>
+          <t>93046823</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>きむたくん たくやん</t>
+          <t>きあぬ りぶりん</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>93116655</t>
+          <t>95889112</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ぶるーの まるりん</t>
+          <t>あやせる はるかるん</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>95065382</t>
+          <t>98154857</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>じゃすてぃ んびりゅ</t>
+          <t>ほしのげ げんち</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>96653405</t>
+          <t>99704475</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>とむ ほらりん</t>
+          <t>けいしー ましゅりん</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>95731503</t>
+          <t>96362653</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>べねでぃ くとりん</t>
+          <t>やまじゃき けんとん</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>99526434</t>
+          <t>93283594</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>もーつぁ るとぴ</t>
+          <t>どびゅっし ゅりん</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>94927953</t>
+          <t>95848525</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>じょだま いけるん</t>
+          <t>ふろーれ んすぴ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>94869247</t>
+          <t>98943564</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>すあれす りんぴょ</t>
+          <t>にしこり けいたん</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>98995825</t>
+          <t>98005222</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>でんぜる わしりん</t>
+          <t>なただり りんぴょ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>94377242</t>
+          <t>90302590</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>じぇな おてりん</t>
+          <t>すだまちゃ まさきゅ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>94239790</t>
+          <t>99484036</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>たかなし さらら</t>
+          <t>あん ねはさりん</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>98692177</t>
+          <t>95809183</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>はりー すたぴょ</t>
+          <t>たけうてぃ りょうまる</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>93388235</t>
+          <t>96251330</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>さかもとは やとりん</t>
+          <t>いにえす たりん</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>91831401</t>
+          <t>98407534</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>じぇいく ぎれりん</t>
+          <t>ろばーと ぱてりん</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>91170366</t>
+          <t>92283434</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>がりれお るんた</t>
+          <t>へんりー かびりん</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>99608533</t>
+          <t>90722785</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>やまだて つとん</t>
+          <t>めしりお ぴょりん</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>95859571</t>
+          <t>92453456</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>にしじま ひでとん</t>
+          <t>べーとー べんちゃ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>94358751</t>
+          <t>90311811</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>くろーす りんぬ</t>
+          <t>やまだて つとん</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>98633742</t>
+          <t>93633575</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>えんどう りんみゅ</t>
+          <t>おかざき りんぬ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>90603142</t>
+          <t>91462747</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>でぃかぷり おれおん</t>
+          <t>ふくだん みらきゅ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>95648568</t>
+          <t>94287215</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>じぇし かちゃり</t>
+          <t>がりれお るんた</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>94542720</t>
+          <t>99915396</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>わーぐな るんちゃ</t>
+          <t>わおたに しょうたいむ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>97818030</t>
+          <t>94933437</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>みとま りんぴょ</t>
+          <t>まーご っとりん</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>99790509</t>
+          <t>90339372</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>かわぐてぃ はるにゃ</t>
+          <t>てすらん にこぴょ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>90975954</t>
+          <t>91029201</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>にゅとーん いさりん</t>
+          <t>さかもとは やとりん</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>91597411</t>
+          <t>94944026</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>どびゅっし ゅりん</t>
+          <t>くりろな うどりん</t>
         </is>
       </c>
     </row>
